--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909452.3026543075</v>
+        <v>-911933.2224797661</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>194.1206232006133</v>
       </c>
       <c r="I11" t="n">
         <v>14.65678318579953</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.5038013161968</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
@@ -1528,16 +1528,16 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>34.85309056548491</v>
+        <v>19.49056290253439</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719018</v>
@@ -1546,7 +1546,7 @@
         <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -1588,7 +1588,7 @@
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>140.7402479727196</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.700620601468316</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>39.08240851499301</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292096</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>13.4458378433348</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649684</v>
@@ -1895,16 +1895,16 @@
         <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
-        <v>50.82754388491584</v>
+        <v>72.31625413219213</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3363911711813</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
         <v>93.35153789290882</v>
@@ -2020,7 +2020,7 @@
         <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>84.85683139908211</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>77.75832703546254</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>64.76025162138177</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>134.9383736358133</v>
       </c>
       <c r="F22" t="n">
         <v>71.52576481721223</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2140663782812</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
@@ -2536,7 +2536,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0274093258353</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.2225584308251</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333689</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538323</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>113.1013389531839</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
@@ -3718,13 +3718,13 @@
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>196.6598613601172</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092319</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621575</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>134.2912433677312</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5641732435937</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>42.20693826439404</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>230.7340562419023</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1383.148747430736</v>
+        <v>1365.645403423857</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.378297750048</v>
+        <v>1023.874953743169</v>
       </c>
       <c r="D11" t="n">
-        <v>710.3046664030207</v>
+        <v>1023.874953743169</v>
       </c>
       <c r="E11" t="n">
-        <v>351.7084810645001</v>
+        <v>665.278768404648</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645001</v>
+        <v>665.278768404648</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>277.3983855093682</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="V11" t="n">
-        <v>2777.354063962968</v>
+        <v>2759.85071995609</v>
       </c>
       <c r="W11" t="n">
-        <v>2451.777475952578</v>
+        <v>2434.274131945699</v>
       </c>
       <c r="X11" t="n">
-        <v>2105.503784951222</v>
+        <v>2088.000440944343</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.556520235134</v>
+        <v>1725.053176228255</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5109,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.9510275436843</v>
+        <v>680.5377403381726</v>
       </c>
       <c r="C13" t="n">
-        <v>480.9510275436843</v>
+        <v>538.7936246699894</v>
       </c>
       <c r="D13" t="n">
-        <v>480.9510275436843</v>
+        <v>415.8690525173774</v>
       </c>
       <c r="E13" t="n">
-        <v>445.745885558346</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201593</v>
+        <v>396.1816152420903</v>
       </c>
       <c r="G13" t="n">
-        <v>185.537235954602</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980072</v>
+        <v>1028.594649792495</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142007</v>
+        <v>834.9941379086887</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581.813367974995</v>
+        <v>1439.955498978989</v>
       </c>
       <c r="C14" t="n">
-        <v>1581.813367974995</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="D14" t="n">
-        <v>1250.739736627968</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589727</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3316.817315951123</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253117</v>
+        <v>3138.031635595069</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.481731786677</v>
+        <v>3138.031635595069</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.61091170283</v>
+        <v>2834.160815511222</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.034323692439</v>
+        <v>2508.584227500831</v>
       </c>
       <c r="X14" t="n">
-        <v>1944.760632691083</v>
+        <v>2162.310536499475</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.813367974995</v>
+        <v>1799.363271783387</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1355997018111</v>
+        <v>680.5377403381726</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3914840336279</v>
+        <v>538.7936246699894</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4669118810157</v>
+        <v>415.8690525173773</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583462</v>
+        <v>295.1480261947077</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201594</v>
+        <v>295.1480261947077</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705057</v>
@@ -5461,25 +5461,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2064.282064688578</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.707516517828</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1869.707516517828</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.215095571664</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.989992794427</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.192509156134</v>
+        <v>1028.594649792495</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5919972723271</v>
+        <v>834.9941379086887</v>
       </c>
     </row>
     <row r="17">
@@ -5498,58 +5498,58 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446366</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3238.615899924957</v>
+        <v>3216.910131998415</v>
       </c>
       <c r="U17" t="n">
-        <v>3059.727123406592</v>
+        <v>3038.021355480048</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406592</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="W17" t="n">
         <v>2781.600168344275</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872286</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>389.1109578243101</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>316.8627105341967</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>223.8015741167126</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604111</v>
+        <v>152.2260875423674</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.79283406037</v>
+        <v>1650.240104949983</v>
       </c>
       <c r="C20" t="n">
-        <v>1403.472017327755</v>
+        <v>1355.919288217369</v>
       </c>
       <c r="D20" t="n">
-        <v>1119.848018928802</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>808.7014665383545</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F20" t="n">
-        <v>472.3572619565439</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G20" t="n">
-        <v>131.9265120093368</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344065</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.620805936083</v>
+        <v>3111.068076825697</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.19961880031</v>
+        <v>2854.646889689923</v>
       </c>
       <c r="W20" t="n">
-        <v>2624.072663737992</v>
+        <v>2576.519934627606</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.248605684709</v>
+        <v>2277.695876574323</v>
       </c>
       <c r="Y20" t="n">
-        <v>2009.750973916695</v>
+        <v>1962.198244806308</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
@@ -5835,16 +5835,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E22" t="n">
         <v>326.0809636879837</v>
@@ -5902,10 +5902,10 @@
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604111</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5950,10 +5950,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454044</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
@@ -5987,25 +5987,25 @@
         <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528512</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168073</v>
+        <v>722.3006998426977</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.546335837141</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895923</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.29762377526</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567317</v>
@@ -6017,22 +6017,22 @@
         <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
         <v>73.37775482248239</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6172,16 +6172,16 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
         <v>982.4929116259236</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6230,46 +6230,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.011402386886</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058811</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,52 +6461,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1609.94386168679</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N29" t="n">
-        <v>2156.722678745572</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
@@ -6619,34 +6619,34 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960301</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6707,22 +6707,22 @@
         <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>3250.586874582271</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309625</v>
@@ -6731,10 +6731,10 @@
         <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146292</v>
@@ -6844,13 +6844,13 @@
         <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6865,19 +6865,19 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389146</v>
+        <v>749.7479478441287</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848511</v>
+        <v>679.4831994900651</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725154</v>
+        <v>575.2179889538781</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898301</v>
+        <v>427.304895371485</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>280.4149478735746</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>211.383545822137</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
         <v>315.6219318279954</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X37" t="n">
-        <v>946.005145338841</v>
+        <v>954.8461226702118</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953108</v>
+        <v>832.724978100525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7190,16 +7190,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389146</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>527.9917592185268</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>476.5465543800345</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>427.3048953714848</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4149478735745</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7366,16 +7366,16 @@
         <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X40" t="n">
-        <v>946.005145338841</v>
+        <v>804.7004397908621</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953108</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464964</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.9279421464335</v>
+        <v>599.602264964779</v>
       </c>
       <c r="C43" t="n">
-        <v>527.9917592185266</v>
+        <v>529.3375166107155</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800343</v>
+        <v>477.8923117722233</v>
       </c>
       <c r="E43" t="n">
-        <v>328.6334607976412</v>
+        <v>428.6506527636736</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735743</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221367</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1668.551646658396</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150358</v>
       </c>
       <c r="X43" t="n">
-        <v>902.0261169725163</v>
+        <v>804.700439790862</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.9049724028297</v>
+        <v>682.5792952211752</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464963</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,13 +7673,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386224</v>
+        <v>642.2355359389146</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107155</v>
+        <v>571.9707875848511</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722232</v>
+        <v>421.8541481725154</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898301</v>
+        <v>372.6124891639656</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657632</v>
+        <v>324.3939762398987</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>156.6911396146176</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>109.1453874063188</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7834,22 +7834,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1379.44877978404</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151996</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.689990688879</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647053</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950186</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729012</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938961</v>
+        <v>191.4948909389602</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333073</v>
+        <v>181.0856325333065</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830247</v>
+        <v>179.3553748830239</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383996</v>
+        <v>182.8301554383988</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558659</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672278</v>
+        <v>105.9629718672273</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253598</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677703</v>
+        <v>92.30246558677639</v>
       </c>
       <c r="O9" t="n">
-        <v>106.882960835974</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185287</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.66901280726893</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665435</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>21.74982042514716</v>
+        <v>52.18875040233365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40.02214132148606</v>
+        <v>277.220684154413</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.56699459958072</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>17.32831056681172</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.66072549395783</v>
+        <v>100.0232531569084</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>214.2699755124158</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104945</v>
+        <v>73.56699459958109</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100.0232531569088</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>149.4030409009807</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>79.19514304898529</v>
+        <v>57.706432801709</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>203.0294313795014</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9522295602197</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1182183.40135685</v>
+        <v>1182183.401356851</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1182183.40135685</v>
+        <v>1182183.401356851</v>
       </c>
     </row>
     <row r="16">
@@ -26317,10 +26317,10 @@
         <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266272.0676869325</v>
+        <v>266272.0676869327</v>
       </c>
       <c r="E2" t="n">
-        <v>237100.5002941171</v>
+        <v>237100.5002941172</v>
       </c>
       <c r="F2" t="n">
         <v>237100.5002941171</v>
@@ -26329,13 +26329,13 @@
         <v>258222.5169051246</v>
       </c>
       <c r="H2" t="n">
-        <v>258222.5169051247</v>
+        <v>258222.5169051246</v>
       </c>
       <c r="I2" t="n">
+        <v>266838.5752058924</v>
+      </c>
+      <c r="J2" t="n">
         <v>266838.5752058922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="K2" t="n">
         <v>266838.5752058922</v>
@@ -26344,16 +26344,16 @@
         <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="O2" t="n">
-        <v>266838.5752058921</v>
-      </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552208</v>
+        <v>59764.55367552307</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983354</v>
+        <v>22821.4678298336</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954653</v>
+        <v>430603.427895465</v>
       </c>
       <c r="E4" t="n">
         <v>40024.16194364975</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364969</v>
+        <v>40024.16194364974</v>
       </c>
       <c r="G4" t="n">
+        <v>77052.32230509201</v>
+      </c>
+      <c r="H4" t="n">
         <v>77052.32230509199</v>
-      </c>
-      <c r="H4" t="n">
-        <v>77052.32230509204</v>
       </c>
       <c r="I4" t="n">
         <v>90617.51027754383</v>
       </c>
       <c r="J4" t="n">
+        <v>88960.95519699584</v>
+      </c>
+      <c r="K4" t="n">
         <v>88960.95519699578</v>
-      </c>
-      <c r="K4" t="n">
-        <v>88960.95519699584</v>
       </c>
       <c r="L4" t="n">
         <v>88960.95519699578</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="N4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,34 +26482,34 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219762.7804659277</v>
+        <v>-219767.1940437958</v>
       </c>
       <c r="C6" t="n">
-        <v>-219762.7804659277</v>
+        <v>-219767.1940437958</v>
       </c>
       <c r="D6" t="n">
-        <v>-259244.8193159213</v>
+        <v>-259249.1770660676</v>
       </c>
       <c r="E6" t="n">
-        <v>-968732.1241779915</v>
+        <v>-968960.8786003891</v>
       </c>
       <c r="F6" t="n">
-        <v>120506.847985641</v>
+        <v>120278.0935632427</v>
       </c>
       <c r="G6" t="n">
-        <v>63071.44217994361</v>
+        <v>63005.16480839928</v>
       </c>
       <c r="H6" t="n">
-        <v>100651.5514748177</v>
+        <v>100585.2741032733</v>
       </c>
       <c r="I6" t="n">
-        <v>67663.06879667274</v>
+        <v>67663.06879667286</v>
       </c>
       <c r="J6" t="n">
-        <v>63090.24531229323</v>
+        <v>63090.24531229319</v>
       </c>
       <c r="K6" t="n">
-        <v>88499.67833409025</v>
+        <v>88499.67833409044</v>
       </c>
       <c r="L6" t="n">
-        <v>50919.56903921612</v>
+        <v>50919.56903921619</v>
       </c>
       <c r="M6" t="n">
-        <v>-110032.0210112637</v>
+        <v>-110032.0210112638</v>
       </c>
       <c r="N6" t="n">
-        <v>92136.07898146071</v>
+        <v>92136.07898146036</v>
       </c>
       <c r="O6" t="n">
-        <v>92136.07898146054</v>
+        <v>92136.07898146068</v>
       </c>
       <c r="P6" t="n">
-        <v>92136.07898146061</v>
+        <v>92136.07898146045</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571901</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379056</v>
+        <v>69.78465283790675</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379056</v>
+        <v>69.78465283790675</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873671</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672113</v>
+        <v>84.22861846672104</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987528</v>
+        <v>90.83829126987513</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519095</v>
+        <v>84.46220888519079</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990504</v>
+        <v>7.649035050990262</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317063</v>
+        <v>75.62456067317046</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.49558901075599</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
         <v>73.89528320571901</v>
@@ -28740,7 +28740,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075598</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="F22" t="n">
         <v>73.89528320571901</v>
@@ -29022,7 +29022,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
         <v>73.89528320571901</v>
@@ -29244,7 +29244,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T25" t="n">
         <v>73.89528320571901</v>
@@ -29256,7 +29256,7 @@
         <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>11.49558901075574</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
         <v>73.89528320571901</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859219</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.3929145873873</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371081</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>54.14548214544391</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,22 +30429,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810499</v>
+        <v>55.47778196371084</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.47778196371067</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>54.14548214544342</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>55.47778196371061</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413288</v>
+        <v>0.2805413179413335</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366635</v>
+        <v>2.873093772366682</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993309</v>
+        <v>10.81556915993327</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362288</v>
+        <v>23.81059368362327</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207933</v>
+        <v>35.68590767207992</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102629</v>
+        <v>44.27152403102701</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396539</v>
+        <v>49.2606006939662</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356619</v>
+        <v>50.05768871356702</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328711</v>
+        <v>47.26805598328788</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661054</v>
+        <v>40.34219219661121</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478367</v>
+        <v>30.29530624783719</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313201</v>
+        <v>17.6225535631323</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588037</v>
+        <v>6.392835282588142</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288167</v>
+        <v>1.228069619288188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353063</v>
+        <v>0.02244330543530667</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179646</v>
+        <v>0.1501028381796485</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840266</v>
+        <v>1.449677410840289</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693953</v>
+        <v>5.168014384694038</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790691</v>
+        <v>14.18142647906934</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710538</v>
+        <v>24.23831663710578</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264639</v>
+        <v>32.59140791264692</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665855</v>
+        <v>38.03263579665917</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655627</v>
+        <v>39.03924649655691</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847043</v>
+        <v>35.71328360847101</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449749</v>
+        <v>28.66305863449796</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447552</v>
+        <v>19.16049562447583</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276785</v>
+        <v>9.319542882768003</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608774</v>
+        <v>2.78809438460882</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890116</v>
+        <v>0.6050197731890214</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345136</v>
+        <v>0.009875186722345299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486822</v>
+        <v>0.1258411772486843</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811012</v>
+        <v>1.11884246681103</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078553</v>
+        <v>3.784387403078616</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481832</v>
+        <v>8.896971231481979</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489235</v>
+        <v>14.62045677489259</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477226</v>
+        <v>18.70915102477257</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908206</v>
+        <v>19.72617653908239</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115517</v>
+        <v>19.25713215115549</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875011</v>
+        <v>17.7870783987504</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287698</v>
+        <v>15.21991838287723</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852375</v>
+        <v>10.53748257852392</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381655</v>
+        <v>5.658276933381749</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233852</v>
+        <v>2.193068516233888</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625511</v>
+        <v>0.53768503006256</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564492</v>
+        <v>0.006864064213564606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923334</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.2864356872412</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>414.4309990266408</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36598,13 +36598,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>742.5918998397226</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>560.6709362553739</v>
+        <v>591.1098662325604</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165747</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37002,13 +37002,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,10 +37084,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>438.7841275408579</v>
+        <v>675.9826703737849</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865553991</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923308</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
